--- a/data/trans_dic/P25A$medico-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3121193746739151</v>
+        <v>0.3241604973706088</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2464048761427372</v>
+        <v>0.2401433036024756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1971470656757774</v>
+        <v>0.1983613677349126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05883884545764663</v>
+        <v>0.06385105513966904</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.11979508184494</v>
+        <v>0.1189888375172416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02543015844286986</v>
+        <v>0.02536591378583354</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2937196251200285</v>
+        <v>0.2946539057796479</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2345024891052713</v>
+        <v>0.2341628697106407</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1767093759834528</v>
+        <v>0.1773114696814696</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4262945029159791</v>
+        <v>0.4281746376542842</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3382828139883107</v>
+        <v>0.3357005067906247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3101984838628154</v>
+        <v>0.312236107152673</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2604504106945827</v>
+        <v>0.2720681901259237</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3180893350509703</v>
+        <v>0.3116618379603434</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1953722671630599</v>
+        <v>0.1953269614690553</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3917133669739898</v>
+        <v>0.3932112041351787</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3200408553522073</v>
+        <v>0.3221812157694422</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2807993677570571</v>
+        <v>0.2823797879951724</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1481081697326669</v>
+        <v>0.1461977682770373</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08928734809284149</v>
+        <v>0.08853006963683621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1222579955161416</v>
+        <v>0.1262798454129366</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03688609842502771</v>
+        <v>0.03827645218339062</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04176470818761124</v>
+        <v>0.0435023951142067</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07048519811964729</v>
+        <v>0.06986339100525152</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1124388127376593</v>
+        <v>0.1143986473810631</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07738710062928149</v>
+        <v>0.07780993826194615</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1160765281408579</v>
+        <v>0.1117520874016577</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2513840212939434</v>
+        <v>0.2486927992278631</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1607057416676314</v>
+        <v>0.1606455350532922</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2151803030443859</v>
+        <v>0.2152993456972214</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1221961607229398</v>
+        <v>0.1288009568669159</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1129324660957594</v>
+        <v>0.116957943639366</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1603602377309613</v>
+        <v>0.1636070402616805</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1855157446962503</v>
+        <v>0.1870402036998271</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1317184105925165</v>
+        <v>0.1294335279202863</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1804044640360926</v>
+        <v>0.1746427556447058</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06296029974310087</v>
+        <v>0.06189665856237045</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06223880167571889</v>
+        <v>0.05482853653479224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07159216811930484</v>
+        <v>0.06777225548593502</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01856046851245513</v>
+        <v>0.01882913295825782</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01968204377832775</v>
+        <v>0.01971063457968003</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05244098872565604</v>
+        <v>0.0542400065989652</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04107181995119137</v>
+        <v>0.0400736582286428</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05521321735203744</v>
+        <v>0.05747648760984447</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2221595003494483</v>
+        <v>0.2287620668775165</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2125907363098345</v>
+        <v>0.1943016350655735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2265177460289277</v>
+        <v>0.2429853268869286</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1572893005456276</v>
+        <v>0.1572675557140318</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08951831788955751</v>
+        <v>0.07825562762387341</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1105519090732322</v>
+        <v>0.1100625842641939</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1691077257686191</v>
+        <v>0.1646876051616173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1298500055811782</v>
+        <v>0.129933023311292</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.148732490360707</v>
+        <v>0.1532527398914866</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2378911544092303</v>
+        <v>0.2383141626000216</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1611111929572938</v>
+        <v>0.1598358610240491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06436110133810984</v>
+        <v>0.06089297614524579</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06304732552258402</v>
+        <v>0.06227764544163288</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1902942164948042</v>
+        <v>0.1893999692709256</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1421190670827721</v>
+        <v>0.1405724320074752</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1299983183199668</v>
+        <v>0.1314164121834014</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3063928020560311</v>
+        <v>0.3091056365479292</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.225956749305115</v>
+        <v>0.2257991989714504</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1247166640613382</v>
+        <v>0.1213098942398595</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1239897657893975</v>
+        <v>0.1242262299301503</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2453429966235182</v>
+        <v>0.2465853388569809</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1859513318472903</v>
+        <v>0.1863612369592128</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1772672169413028</v>
+        <v>0.1805551220695887</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>94594</v>
+        <v>98243</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>91680</v>
+        <v>89350</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>41365</v>
+        <v>41620</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2834</v>
+        <v>3075</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8274</v>
+        <v>8219</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>103163</v>
+        <v>103491</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>103449</v>
+        <v>103299</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>43726</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>129197</v>
+        <v>129767</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>125865</v>
+        <v>124904</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65085</v>
+        <v>65512</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12543</v>
+        <v>13102</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21971</v>
+        <v>21527</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7352</v>
+        <v>7350</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>137581</v>
+        <v>138107</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>141183</v>
+        <v>142128</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>69483</v>
+        <v>69874</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35111</v>
+        <v>34658</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31049</v>
+        <v>30785</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>36927</v>
+        <v>38142</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5578</v>
+        <v>5788</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10027</v>
+        <v>10444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14173</v>
+        <v>14048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>43658</v>
+        <v>44419</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>45490</v>
+        <v>45739</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58400</v>
+        <v>56224</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59594</v>
+        <v>58956</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55884</v>
+        <v>55863</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64993</v>
+        <v>65029</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18478</v>
+        <v>19477</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27114</v>
+        <v>28080</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>32244</v>
+        <v>32897</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>72032</v>
+        <v>72624</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>77428</v>
+        <v>76085</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90764</v>
+        <v>87865</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5316</v>
+        <v>5226</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5991</v>
+        <v>5278</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6416</v>
+        <v>6073</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7121</v>
+        <v>7366</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7133</v>
+        <v>6959</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10197</v>
+        <v>10615</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18758</v>
+        <v>19316</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20465</v>
+        <v>18704</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20299</v>
+        <v>21774</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8079</v>
+        <v>8077</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6929</v>
+        <v>6057</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10510</v>
+        <v>10464</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22964</v>
+        <v>22364</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22551</v>
+        <v>22565</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27468</v>
+        <v>28303</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>148579</v>
+        <v>148843</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>96904</v>
+        <v>96137</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24880</v>
+        <v>23539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21043</v>
+        <v>20786</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>166565</v>
+        <v>165782</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>170918</v>
+        <v>169057</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>121580</v>
+        <v>122906</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>191363</v>
+        <v>193057</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>135906</v>
+        <v>135812</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48211</v>
+        <v>46894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41384</v>
+        <v>41463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>214749</v>
+        <v>215837</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>223632</v>
+        <v>224125</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>165788</v>
+        <v>168863</v>
       </c>
     </row>
     <row r="20">
